--- a/src/InsiteCommerce.Web/Excel/OrderUploadTemplate.xlsx
+++ b/src/InsiteCommerce.Web/Excel/OrderUploadTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Ecommerce\trunk\InSiteCommerce.Web\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\insite-commerce-source\trunk\InSiteCommerce.Web\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0814D57F-D28E-4F94-9B70-D73DBD649BA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +39,6 @@
     <t>Unit of Measure</t>
   </si>
   <si>
-    <t>Please, don't forget to check "First row is colum heading" checkbox,  if you leave first line as is.</t>
-  </si>
-  <si>
     <t>2008</t>
   </si>
   <si>
@@ -49,11 +47,14 @@
   <si>
     <t>Item #s or Customer Part #s</t>
   </si>
+  <si>
+    <t>Please, don't forget to check "First row is column heading" checkbox,  if you leave first line as is.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,17 +103,17 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,9 +129,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +169,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -203,6 +204,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -238,9 +256,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,42 +448,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="8" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="8"/>
-    <col min="8" max="8" width="9.140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="12.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="9.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -457,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -468,10 +503,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -479,7 +514,7 @@
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -488,7 +523,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -781,8 +816,8 @@
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
@@ -997,8 +1032,8 @@
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
@@ -1213,8 +1248,8 @@
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
@@ -1429,8 +1464,8 @@
       <c r="C216" s="2"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
@@ -1645,8 +1680,8 @@
       <c r="C270" s="2"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B271" s="7"/>
-      <c r="C271" s="7"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
@@ -1861,8 +1896,8 @@
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" s="7"/>
-      <c r="C325" s="7"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
@@ -2077,8 +2112,8 @@
       <c r="C378" s="2"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B379" s="7"/>
-      <c r="C379" s="7"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B380" s="3"/>
@@ -2293,8 +2328,8 @@
       <c r="C432" s="2"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B433" s="7"/>
-      <c r="C433" s="7"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B434" s="3"/>
@@ -2509,8 +2544,8 @@
       <c r="C486" s="2"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B487" s="7"/>
-      <c r="C487" s="7"/>
+      <c r="B487" s="5"/>
+      <c r="C487" s="5"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B488" s="3"/>
@@ -2725,8 +2760,8 @@
       <c r="C540" s="2"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B541" s="7"/>
-      <c r="C541" s="7"/>
+      <c r="B541" s="5"/>
+      <c r="C541" s="5"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B542" s="3"/>
@@ -2941,8 +2976,8 @@
       <c r="C594" s="2"/>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B595" s="7"/>
-      <c r="C595" s="7"/>
+      <c r="B595" s="5"/>
+      <c r="C595" s="5"/>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B596" s="3"/>
@@ -3167,7 +3202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3179,7 +3214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
